--- a/hackfroge.xlsx
+++ b/hackfroge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,74 +456,84 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>First Review Score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Second Review Score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Third Review Score</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Final Score</t>
+          <t>UPI ID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Verification Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Hostel</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Registration Number</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Room</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>UPI ID</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction ID</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Verification Status</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Hostel</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Registration Number</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Sector</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Quantum Coders</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -537,64 +547,72 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7671084221@ybl</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7671084221@ybl</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>harsha</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>knsharsha2004@gmail.com</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ch kns Harsha</t>
+          <t>Day's Scholar</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>knsharsha2004@gmail.com</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mh-3</t>
+          <t>Team Lead</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Naruto</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Team Lead</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Naruto</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quantum Coders</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -608,64 +626,72 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7671084221@ybl</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7671084221@ybl</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>koja</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>1@klu.ac.in</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>sai</t>
+          <t>Day's Scholar</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>99230040836@klu.ac.in</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Mh-4</t>
+          <t>Team Member</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>99230040836</t>
+          <t>Naruto</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Team Member</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Naruto</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quantum Coders</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -679,64 +705,72 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7671084221@ybl</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7671084221@ybl</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>food</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>5@klu.ac.in</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>vamsi</t>
+          <t>Day's Scholar</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>99230040837@klu.ac.in</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Day's Scholar</t>
+          <t>Team Member</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>99230040837</t>
+          <t>Naruto</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Team Member</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Naruto</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quantum Coders</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -750,64 +784,76 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7671084221@ybl</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7671084221@ybl</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>tech</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>23@klu.ac.in</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>asa</t>
+          <t>Mh-6</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1111@klu.ac.in</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Lh-2</t>
+          <t>Team Member</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>Naruto</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Team Member</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Naruto</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>741</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Quantum Coders</t>
+          <t>final</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -821,59 +867,67 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7671084221@ybl</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7671084221@ybl</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>rolls</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>34@klu.ac.in</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>Day's Scholar</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>111112@klu.ac.in</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Day's Scholar</t>
+          <t>Team Member</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>111112</t>
+          <t>Naruto</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Team Member</t>
+          <t>EEE</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Naruto</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
